--- a/Gen_2/БИ4.xlsx
+++ b/Gen_2/БИ4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epyur\PycharmProjects\PythonProject\Gen_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8B6DF8-E5E6-4CF8-B4EF-69586E65CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890436B-DE8B-4EBB-A4E7-BFC519CB4BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Gen_2/БИ4.xlsx
+++ b/Gen_2/БИ4.xlsx
@@ -400,10 +400,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
+      <selection activeCell="A4" sqref="A4:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -860,6 +860,189 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1942109734</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30.12.2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Группа горючести</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ЛПИ</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>56275</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>LOGICPIR Балкон ФФ L-1190х590х50</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>7951</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1942112987</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.12.2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Группа горючести</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ЛПИ</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>696460</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>LOGICPIR PROF ФФ Г1 L-2385х1185х45</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>8078</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1942114822</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30.12.2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Группа горючести</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ЛПИ</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>644713</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>LOGICPIR PROF ФФ Г1 L-2385х1185х50</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>8082</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:W1"/>

--- a/Gen_2/БИ4.xlsx
+++ b/Gen_2/БИ4.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -24,13 +24,38 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -42,24 +67,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -400,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:EH10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD10"/>
@@ -412,6 +442,14 @@
     <col width="15.7109375" customWidth="1" style="4" min="14" max="14"/>
     <col width="12.42578125" customWidth="1" style="4" min="15" max="15"/>
     <col width="12.28515625" customWidth="1" style="4" min="16" max="16"/>
+    <col hidden="1" outlineLevel="2" width="9.140625" customWidth="1" style="4" min="26" max="60"/>
+    <col outlineLevel="1" collapsed="1" width="9.140625" customWidth="1" style="4" min="61" max="61"/>
+    <col hidden="1" outlineLevel="2" width="9.140625" customWidth="1" style="4" min="62" max="95"/>
+    <col outlineLevel="1" collapsed="1" width="9.140625" customWidth="1" style="4" min="96" max="96"/>
+    <col outlineLevel="1" width="9.140625" customWidth="1" style="4" min="97" max="97"/>
+    <col hidden="1" outlineLevel="3" width="9.140625" customWidth="1" style="4" min="98" max="131"/>
+    <col outlineLevel="2" collapsed="1" width="9.140625" customWidth="1" style="4" min="132" max="132"/>
+    <col outlineLevel="2" width="9.140625" customWidth="1" style="4" min="133" max="138"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="4">
@@ -420,8 +458,28 @@
           <t>Заголовок</t>
         </is>
       </c>
+      <c r="Z1" s="5" t="inlineStr">
+        <is>
+          <t>Горючесть 1 серия</t>
+        </is>
+      </c>
+      <c r="BJ1" s="5" t="inlineStr">
+        <is>
+          <t>Горючесть 2 серия</t>
+        </is>
+      </c>
+      <c r="CT1" s="5" t="inlineStr">
+        <is>
+          <t>Горючесть 3 серия</t>
+        </is>
+      </c>
+      <c r="EB1" s="5" t="inlineStr">
+        <is>
+          <t>горючесть общая оценка</t>
+        </is>
+      </c>
     </row>
-    <row r="2" ht="135" customFormat="1" customHeight="1" s="2">
+    <row r="2" ht="135" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>№ заявки</t>
@@ -536,6 +594,551 @@
       <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Электронная почта согласующего</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>ID записи протокола</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>Дата протокола</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>№ записи заявки на испытания</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>Лаборатория</t>
+        </is>
+      </c>
+      <c r="AD2" s="2" t="inlineStr">
+        <is>
+          <t>Испытатель</t>
+        </is>
+      </c>
+      <c r="AE2" s="2" t="inlineStr">
+        <is>
+          <t>Дата поступления образцов</t>
+        </is>
+      </c>
+      <c r="AF2" s="2" t="inlineStr">
+        <is>
+          <t>Дата проведения испытаний</t>
+        </is>
+      </c>
+      <c r="AG2" s="2" t="inlineStr">
+        <is>
+          <t>Ссылка на файл протокола полученного во внешней лаборатории</t>
+        </is>
+      </c>
+      <c r="AH2" s="2" t="inlineStr">
+        <is>
+          <t>Температура дымовых газов</t>
+        </is>
+      </c>
+      <c r="AI2" s="2" t="inlineStr">
+        <is>
+          <t>Время достижения максимальной температуры, с</t>
+        </is>
+      </c>
+      <c r="AJ2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждения образца 1 образца</t>
+        </is>
+      </c>
+      <c r="AK2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждений 2 образца</t>
+        </is>
+      </c>
+      <c r="AL2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждений 3 образца</t>
+        </is>
+      </c>
+      <c r="AM2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждений 4 образца</t>
+        </is>
+      </c>
+      <c r="AN2" s="2" t="inlineStr">
+        <is>
+          <t>Масса образцов до испытания</t>
+        </is>
+      </c>
+      <c r="AO2" s="2" t="inlineStr">
+        <is>
+          <t>Масса образцов после испытания</t>
+        </is>
+      </c>
+      <c r="AP2" s="2" t="inlineStr">
+        <is>
+          <t>Время самостоятельного горения</t>
+        </is>
+      </c>
+      <c r="AQ2" s="2" t="inlineStr">
+        <is>
+          <t>Падение горящих капель расплава</t>
+        </is>
+      </c>
+      <c r="AR2" s="2" t="inlineStr">
+        <is>
+          <t>Тип основания под образец</t>
+        </is>
+      </c>
+      <c r="AS2" s="2" t="inlineStr">
+        <is>
+          <t>Способ крепления образца</t>
+        </is>
+      </c>
+      <c r="AT2" s="2" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+      <c r="AU2" s="2" t="inlineStr">
+        <is>
+          <t>Фото образцов до испытания</t>
+        </is>
+      </c>
+      <c r="AV2" s="2" t="inlineStr">
+        <is>
+          <t>Фото образцов после испытания</t>
+        </is>
+      </c>
+      <c r="AW2" s="2" t="inlineStr">
+        <is>
+          <t>График температуры</t>
+        </is>
+      </c>
+      <c r="AX2" s="2" t="inlineStr">
+        <is>
+          <t>Номер серии</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>температура воздуха</t>
+        </is>
+      </c>
+      <c r="AZ2" s="1" t="inlineStr">
+        <is>
+          <t>Влажность</t>
+        </is>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
+        <is>
+          <t>Давление</t>
+        </is>
+      </c>
+      <c r="BB2" s="1" t="inlineStr">
+        <is>
+          <t>средняя длина повреждений</t>
+        </is>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>потеря массы</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика образца по температуре дыма</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по повреждениям</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по потере массы</t>
+        </is>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по каплям</t>
+        </is>
+      </c>
+      <c r="BJ2" s="2" t="inlineStr">
+        <is>
+          <t>ID записи протокола</t>
+        </is>
+      </c>
+      <c r="BK2" s="2" t="inlineStr">
+        <is>
+          <t>Дата протокола</t>
+        </is>
+      </c>
+      <c r="BL2" s="2" t="inlineStr">
+        <is>
+          <t>№ записи заявки на испытания</t>
+        </is>
+      </c>
+      <c r="BM2" s="2" t="inlineStr">
+        <is>
+          <t>Лаборатория</t>
+        </is>
+      </c>
+      <c r="BN2" s="2" t="inlineStr">
+        <is>
+          <t>Испытатель</t>
+        </is>
+      </c>
+      <c r="BO2" s="2" t="inlineStr">
+        <is>
+          <t>Дата поступления образцов</t>
+        </is>
+      </c>
+      <c r="BP2" s="2" t="inlineStr">
+        <is>
+          <t>Дата проведения испытаний</t>
+        </is>
+      </c>
+      <c r="BQ2" s="2" t="inlineStr">
+        <is>
+          <t>Ссылка на файл протокола полученного во внешней лаборатории</t>
+        </is>
+      </c>
+      <c r="BR2" s="2" t="inlineStr">
+        <is>
+          <t>Температура дымовых газов</t>
+        </is>
+      </c>
+      <c r="BS2" s="2" t="inlineStr">
+        <is>
+          <t>Время достижения максимальной температуры, с</t>
+        </is>
+      </c>
+      <c r="BT2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждения образца 1 образца</t>
+        </is>
+      </c>
+      <c r="BU2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждений 2 образца</t>
+        </is>
+      </c>
+      <c r="BV2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждений 3 образца</t>
+        </is>
+      </c>
+      <c r="BW2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждений 4 образца</t>
+        </is>
+      </c>
+      <c r="BX2" s="2" t="inlineStr">
+        <is>
+          <t>Масса образцов до испытания</t>
+        </is>
+      </c>
+      <c r="BY2" s="2" t="inlineStr">
+        <is>
+          <t>Масса образцов после испытания</t>
+        </is>
+      </c>
+      <c r="BZ2" s="2" t="inlineStr">
+        <is>
+          <t>Время самостоятельного горения</t>
+        </is>
+      </c>
+      <c r="CA2" s="2" t="inlineStr">
+        <is>
+          <t>Падение горящих капель расплава</t>
+        </is>
+      </c>
+      <c r="CB2" s="2" t="inlineStr">
+        <is>
+          <t>Тип основания под образец</t>
+        </is>
+      </c>
+      <c r="CC2" s="2" t="inlineStr">
+        <is>
+          <t>Способ крепления образца</t>
+        </is>
+      </c>
+      <c r="CD2" s="2" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+      <c r="CE2" s="2" t="inlineStr">
+        <is>
+          <t>Фото образцов до испытания</t>
+        </is>
+      </c>
+      <c r="CF2" s="2" t="inlineStr">
+        <is>
+          <t>Фото образцов после испытания</t>
+        </is>
+      </c>
+      <c r="CG2" s="2" t="inlineStr">
+        <is>
+          <t>График температуры</t>
+        </is>
+      </c>
+      <c r="CH2" s="2" t="inlineStr">
+        <is>
+          <t>Номер серии</t>
+        </is>
+      </c>
+      <c r="CI2" s="1" t="inlineStr">
+        <is>
+          <t>температура воздуха</t>
+        </is>
+      </c>
+      <c r="CJ2" s="1" t="inlineStr">
+        <is>
+          <t>Влажность</t>
+        </is>
+      </c>
+      <c r="CK2" s="1" t="inlineStr">
+        <is>
+          <t>Давление</t>
+        </is>
+      </c>
+      <c r="CL2" s="1" t="inlineStr">
+        <is>
+          <t>средняя длина повреждений</t>
+        </is>
+      </c>
+      <c r="CM2" s="1" t="inlineStr">
+        <is>
+          <t>потеря массы</t>
+        </is>
+      </c>
+      <c r="CN2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика образца по температуре дыма</t>
+        </is>
+      </c>
+      <c r="CO2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по повреждениям</t>
+        </is>
+      </c>
+      <c r="CP2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по потере массы</t>
+        </is>
+      </c>
+      <c r="CQ2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по каплям</t>
+        </is>
+      </c>
+      <c r="CT2" s="2" t="inlineStr">
+        <is>
+          <t>ID записи протокола</t>
+        </is>
+      </c>
+      <c r="CU2" s="2" t="inlineStr">
+        <is>
+          <t>Дата протокола</t>
+        </is>
+      </c>
+      <c r="CV2" s="2" t="inlineStr">
+        <is>
+          <t>№ записи заявки на испытания</t>
+        </is>
+      </c>
+      <c r="CW2" s="2" t="inlineStr">
+        <is>
+          <t>Лаборатория</t>
+        </is>
+      </c>
+      <c r="CX2" s="2" t="inlineStr">
+        <is>
+          <t>Испытатель</t>
+        </is>
+      </c>
+      <c r="CY2" s="2" t="inlineStr">
+        <is>
+          <t>Дата поступления образцов</t>
+        </is>
+      </c>
+      <c r="CZ2" s="2" t="inlineStr">
+        <is>
+          <t>Дата проведения испытаний</t>
+        </is>
+      </c>
+      <c r="DA2" s="2" t="inlineStr">
+        <is>
+          <t>Ссылка на файл протокола полученного во внешней лаборатории</t>
+        </is>
+      </c>
+      <c r="DB2" s="2" t="inlineStr">
+        <is>
+          <t>Температура дымовых газов</t>
+        </is>
+      </c>
+      <c r="DC2" s="2" t="inlineStr">
+        <is>
+          <t>Время достижения максимальной температуры, с</t>
+        </is>
+      </c>
+      <c r="DD2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждения образца 1 образца</t>
+        </is>
+      </c>
+      <c r="DE2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждений 2 образца</t>
+        </is>
+      </c>
+      <c r="DF2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждений 3 образца</t>
+        </is>
+      </c>
+      <c r="DG2" s="2" t="inlineStr">
+        <is>
+          <t>Длина повреждений 4 образца</t>
+        </is>
+      </c>
+      <c r="DH2" s="2" t="inlineStr">
+        <is>
+          <t>Масса образцов до испытания</t>
+        </is>
+      </c>
+      <c r="DI2" s="2" t="inlineStr">
+        <is>
+          <t>Масса образцов после испытания</t>
+        </is>
+      </c>
+      <c r="DJ2" s="2" t="inlineStr">
+        <is>
+          <t>Время самостоятельного горения</t>
+        </is>
+      </c>
+      <c r="DK2" s="2" t="inlineStr">
+        <is>
+          <t>Падение горящих капель расплава</t>
+        </is>
+      </c>
+      <c r="DL2" s="2" t="inlineStr">
+        <is>
+          <t>Тип основания под образец</t>
+        </is>
+      </c>
+      <c r="DM2" s="2" t="inlineStr">
+        <is>
+          <t>Способ крепления образца</t>
+        </is>
+      </c>
+      <c r="DN2" s="2" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
+      <c r="DO2" s="2" t="inlineStr">
+        <is>
+          <t>Фото образцов до испытания</t>
+        </is>
+      </c>
+      <c r="DP2" s="2" t="inlineStr">
+        <is>
+          <t>Фото образцов после испытания</t>
+        </is>
+      </c>
+      <c r="DQ2" s="2" t="inlineStr">
+        <is>
+          <t>График температуры</t>
+        </is>
+      </c>
+      <c r="DR2" s="2" t="inlineStr">
+        <is>
+          <t>Номер серии</t>
+        </is>
+      </c>
+      <c r="DS2" s="1" t="inlineStr">
+        <is>
+          <t>температура воздуха</t>
+        </is>
+      </c>
+      <c r="DT2" s="1" t="inlineStr">
+        <is>
+          <t>Влажность</t>
+        </is>
+      </c>
+      <c r="DU2" s="1" t="inlineStr">
+        <is>
+          <t>Давление</t>
+        </is>
+      </c>
+      <c r="DV2" s="1" t="inlineStr">
+        <is>
+          <t>средняя длина повреждений</t>
+        </is>
+      </c>
+      <c r="DW2" s="1" t="inlineStr">
+        <is>
+          <t>потеря массы</t>
+        </is>
+      </c>
+      <c r="DX2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика образца по температуре дыма</t>
+        </is>
+      </c>
+      <c r="DY2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по повреждениям</t>
+        </is>
+      </c>
+      <c r="DZ2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по потере массы</t>
+        </is>
+      </c>
+      <c r="EA2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по каплям</t>
+        </is>
+      </c>
+      <c r="EB2" s="1" t="inlineStr">
+        <is>
+          <t>Средняя температура дымовых газов</t>
+        </is>
+      </c>
+      <c r="EC2" s="1" t="inlineStr">
+        <is>
+          <t>средняя длина повреждений</t>
+        </is>
+      </c>
+      <c r="ED2" s="1" t="inlineStr">
+        <is>
+          <t>потеря массы</t>
+        </is>
+      </c>
+      <c r="EE2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика образца по температуре дыма</t>
+        </is>
+      </c>
+      <c r="EF2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по повреждениям</t>
+        </is>
+      </c>
+      <c r="EG2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по потере массы</t>
+        </is>
+      </c>
+      <c r="EH2" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика по каплям</t>
         </is>
       </c>
     </row>
@@ -1044,8 +1647,12 @@
       <c r="W10" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:W1"/>
+    <mergeCell ref="Z1:BG1"/>
+    <mergeCell ref="EB1:EH1"/>
+    <mergeCell ref="BJ1:CQ1"/>
+    <mergeCell ref="CT1:EA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
